--- a/biology/Biochimie/Acide_isovalérianique/Acide_isovalérianique.xlsx
+++ b/biology/Biochimie/Acide_isovalérianique/Acide_isovalérianique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acide_isoval%C3%A9rianique</t>
+          <t>Acide_isovalérianique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’acide isovalérianique ou acide 3-méthylbutanoïque (nom IUPAC) est un acide carboxylique à 5 atomes de carbone, c'est donc un isomère de l'acide pentanoïque.
 C'est aussi un marqueur chimique présent dans les urines du chat. Ce composé sert au marquage du territoire de l'animal. Présent chez les deux sexes, la quantité de molécules excrétée par le mâle est supérieure à celle de la femelle. Ceci est responsable de l’odeur caractéristique, plus ou moins soutenue selon le sexe.[réf. nécessaire]
-C'est aussi un composant important de la sécrétion des glandes périanales du binturong (Viverridae)[5].
+C'est aussi un composant important de la sécrétion des glandes périanales du binturong (Viverridae).
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acide_isoval%C3%A9rianique</t>
+          <t>Acide_isovalérianique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Unité de Physiologie, ENV Nantes.</t>
         </is>
